--- a/data/trans_orig/IP22D4_2023_R-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/IP22D4_2023_R-Estudios-trans_orig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7FA78851-99EE-45E3-AC96-BCD016357586}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{2D32EEB4-2FC5-4273-9FF2-0993353557F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{4907986B-A95D-444D-9767-EB626911464A}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{79DE3C8E-A470-4DA2-9131-D9D50C6B4625}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="51">
   <si>
     <t>Menores que, necesitando atención sanitaria psicológica, no la pudo recibir por motivos económicos en 2023 (Tasa respuesta: 6,61%)</t>
   </si>
@@ -110,52 +110,58 @@
     <t>1,45%</t>
   </si>
   <si>
+    <t>7,01%</t>
+  </si>
+  <si>
+    <t>4,25%</t>
+  </si>
+  <si>
+    <t>0,78%</t>
+  </si>
+  <si>
+    <t>4,13%</t>
+  </si>
+  <si>
+    <t>98,55%</t>
+  </si>
+  <si>
+    <t>92,99%</t>
+  </si>
+  <si>
+    <t>95,75%</t>
+  </si>
+  <si>
+    <t>99,22%</t>
+  </si>
+  <si>
+    <t>95,87%</t>
+  </si>
+  <si>
+    <t>Universitarios</t>
+  </si>
+  <si>
+    <t>14,51%</t>
+  </si>
+  <si>
+    <t>12,61%</t>
+  </si>
+  <si>
     <t>7,06%</t>
   </si>
   <si>
-    <t>4,25%</t>
-  </si>
-  <si>
-    <t>0,78%</t>
-  </si>
-  <si>
-    <t>3,95%</t>
-  </si>
-  <si>
-    <t>98,55%</t>
+    <t>85,49%</t>
+  </si>
+  <si>
+    <t>87,39%</t>
   </si>
   <si>
     <t>92,94%</t>
   </si>
   <si>
-    <t>95,75%</t>
-  </si>
-  <si>
-    <t>99,22%</t>
-  </si>
-  <si>
-    <t>96,05%</t>
-  </si>
-  <si>
-    <t>Universitarios</t>
-  </si>
-  <si>
-    <t>14,51%</t>
-  </si>
-  <si>
-    <t>12,61%</t>
-  </si>
-  <si>
-    <t>85,49%</t>
-  </si>
-  <si>
-    <t>87,39%</t>
-  </si>
-  <si>
     <t>1,02%</t>
   </si>
   <si>
-    <t>5,74%</t>
+    <t>5,41%</t>
   </si>
   <si>
     <t>2,99%</t>
@@ -164,13 +170,13 @@
     <t>0,54%</t>
   </si>
   <si>
-    <t>3,02%</t>
+    <t>3,12%</t>
   </si>
   <si>
     <t>98,98%</t>
   </si>
   <si>
-    <t>94,26%</t>
+    <t>94,59%</t>
   </si>
   <si>
     <t>97,01%</t>
@@ -179,7 +185,7 @@
     <t>99,46%</t>
   </si>
   <si>
-    <t>96,98%</t>
+    <t>96,88%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
@@ -594,7 +600,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2D5E7D20-005A-42FE-9342-C22421EBC620}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CAFBAD33-372F-4E41-A937-26FE878FDB4F}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1064,7 +1070,7 @@
         <v>12</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>24</v>
+        <v>36</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -1082,7 +1088,7 @@
         <v>17</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G11" s="7" t="s">
         <v>19</v>
@@ -1097,7 +1103,7 @@
         <v>17</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="L11" s="7" t="s">
         <v>19</v>
@@ -1112,7 +1118,7 @@
         <v>17</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="Q11" s="7" t="s">
         <v>19</v>
@@ -1183,13 +1189,13 @@
         <v>504</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="F13" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="H13" s="7">
         <v>0</v>
@@ -1204,7 +1210,7 @@
         <v>12</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="M13" s="7">
         <v>1</v>
@@ -1213,13 +1219,13 @@
         <v>504</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="P13" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -1234,10 +1240,10 @@
         <v>48913</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="G14" s="7" t="s">
         <v>17</v>
@@ -1252,7 +1258,7 @@
         <v>17</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="L14" s="7" t="s">
         <v>19</v>
@@ -1264,10 +1270,10 @@
         <v>93273</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="Q14" s="7" t="s">
         <v>17</v>
@@ -1326,7 +1332,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/IP22D4_2023_R-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/IP22D4_2023_R-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2D32EEB4-2FC5-4273-9FF2-0993353557F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{4C7014F9-2590-409A-8121-4B1C73CE6B3E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{79DE3C8E-A470-4DA2-9131-D9D50C6B4625}"/>
+    <workbookView xWindow="2688" yWindow="2688" windowWidth="17280" windowHeight="8880" xr2:uid="{3499E344-A7E1-408A-A1D8-0C90BB04EE5C}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -41,10 +41,10 @@
     <t>Menores que, necesitando atención sanitaria psicológica, no la pudo recibir por motivos económicos en 2023 (Tasa respuesta: 6,61%)</t>
   </si>
   <si>
-    <t>Hombre</t>
-  </si>
-  <si>
-    <t>Mujer</t>
+    <t>Niña</t>
+  </si>
+  <si>
+    <t>Niño</t>
   </si>
   <si>
     <t>Total</t>
@@ -68,7 +68,7 @@
     <t>Primarios</t>
   </si>
   <si>
-    <t>SÍ</t>
+    <t>Sí</t>
   </si>
   <si>
     <t>0,0%</t>
@@ -77,115 +77,115 @@
     <t>0%</t>
   </si>
   <si>
+    <t>30,57%</t>
+  </si>
+  <si>
     <t>26,42%</t>
   </si>
   <si>
-    <t>30,57%</t>
-  </si>
-  <si>
     <t>15,69%</t>
   </si>
   <si>
-    <t>NO</t>
+    <t>No</t>
   </si>
   <si>
     <t>100,0%</t>
   </si>
   <si>
+    <t>69,43%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
     <t>73,58%</t>
   </si>
   <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>69,43%</t>
-  </si>
-  <si>
     <t>84,31%</t>
   </si>
   <si>
     <t>Secundarios</t>
   </si>
   <si>
-    <t>1,45%</t>
-  </si>
-  <si>
-    <t>7,01%</t>
-  </si>
-  <si>
     <t>4,25%</t>
   </si>
   <si>
-    <t>0,78%</t>
-  </si>
-  <si>
-    <t>4,13%</t>
-  </si>
-  <si>
-    <t>98,55%</t>
-  </si>
-  <si>
-    <t>92,99%</t>
+    <t>1,41%</t>
+  </si>
+  <si>
+    <t>6,41%</t>
+  </si>
+  <si>
+    <t>0,77%</t>
+  </si>
+  <si>
+    <t>3,58%</t>
   </si>
   <si>
     <t>95,75%</t>
   </si>
   <si>
-    <t>99,22%</t>
-  </si>
-  <si>
-    <t>95,87%</t>
+    <t>98,59%</t>
+  </si>
+  <si>
+    <t>93,59%</t>
+  </si>
+  <si>
+    <t>99,23%</t>
+  </si>
+  <si>
+    <t>96,42%</t>
   </si>
   <si>
     <t>Universitarios</t>
   </si>
   <si>
+    <t>12,61%</t>
+  </si>
+  <si>
     <t>14,51%</t>
   </si>
   <si>
-    <t>12,61%</t>
-  </si>
-  <si>
     <t>7,06%</t>
   </si>
   <si>
+    <t>87,39%</t>
+  </si>
+  <si>
     <t>85,49%</t>
   </si>
   <si>
-    <t>87,39%</t>
-  </si>
-  <si>
     <t>92,94%</t>
   </si>
   <si>
-    <t>1,02%</t>
-  </si>
-  <si>
-    <t>5,41%</t>
-  </si>
-  <si>
     <t>2,99%</t>
   </si>
   <si>
-    <t>0,54%</t>
-  </si>
-  <si>
-    <t>3,12%</t>
-  </si>
-  <si>
-    <t>98,98%</t>
-  </si>
-  <si>
-    <t>94,59%</t>
+    <t>0,97%</t>
+  </si>
+  <si>
+    <t>5,21%</t>
+  </si>
+  <si>
+    <t>0,51%</t>
+  </si>
+  <si>
+    <t>2,79%</t>
   </si>
   <si>
     <t>97,01%</t>
   </si>
   <si>
-    <t>99,46%</t>
-  </si>
-  <si>
-    <t>96,88%</t>
+    <t>99,03%</t>
+  </si>
+  <si>
+    <t>94,79%</t>
+  </si>
+  <si>
+    <t>99,49%</t>
+  </si>
+  <si>
+    <t>97,21%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
@@ -600,7 +600,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CAFBAD33-372F-4E41-A937-26FE878FDB4F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B097D1BC-65EB-4190-B5EB-8C85F7AC1B7B}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -769,10 +769,10 @@
         <v>16</v>
       </c>
       <c r="C5" s="7">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D5" s="7">
-        <v>5129</v>
+        <v>8192</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>17</v>
@@ -784,10 +784,10 @@
         <v>19</v>
       </c>
       <c r="H5" s="7">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="I5" s="7">
-        <v>4739</v>
+        <v>5658</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>17</v>
@@ -802,7 +802,7 @@
         <v>11</v>
       </c>
       <c r="N5" s="7">
-        <v>9868</v>
+        <v>13850</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>17</v>
@@ -820,25 +820,25 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
+        <v>5</v>
+      </c>
+      <c r="D6" s="7">
+        <v>8192</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H6" s="7">
         <v>6</v>
       </c>
-      <c r="D6" s="7">
-        <v>5129</v>
-      </c>
-      <c r="E6" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="H6" s="7">
-        <v>5</v>
-      </c>
       <c r="I6" s="7">
-        <v>4739</v>
+        <v>5658</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>19</v>
@@ -853,7 +853,7 @@
         <v>11</v>
       </c>
       <c r="N6" s="7">
-        <v>9868</v>
+        <v>13850</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>19</v>
@@ -873,31 +873,31 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
+        <v>0</v>
+      </c>
+      <c r="D7" s="7">
+        <v>0</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="H7" s="7">
         <v>1</v>
       </c>
-      <c r="D7" s="7">
-        <v>504</v>
-      </c>
-      <c r="E7" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="F7" s="7" t="s">
+      <c r="I7" s="7">
+        <v>519</v>
+      </c>
+      <c r="J7" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="K7" s="7" t="s">
         <v>11</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="H7" s="7">
-        <v>0</v>
-      </c>
-      <c r="I7" s="7">
-        <v>0</v>
-      </c>
-      <c r="J7" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="K7" s="7" t="s">
-        <v>12</v>
       </c>
       <c r="L7" s="7" t="s">
         <v>25</v>
@@ -906,7 +906,7 @@
         <v>1</v>
       </c>
       <c r="N7" s="7">
-        <v>504</v>
+        <v>519</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>26</v>
@@ -924,40 +924,40 @@
         <v>16</v>
       </c>
       <c r="C8" s="7">
+        <v>44</v>
+      </c>
+      <c r="D8" s="7">
+        <v>30211</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H8" s="7">
         <v>45</v>
       </c>
-      <c r="D8" s="7">
-        <v>34365</v>
-      </c>
-      <c r="E8" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="F8" s="7" t="s">
+      <c r="I8" s="7">
+        <v>36341</v>
+      </c>
+      <c r="J8" s="7" t="s">
         <v>29</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="H8" s="7">
-        <v>44</v>
-      </c>
-      <c r="I8" s="7">
-        <v>29717</v>
-      </c>
-      <c r="J8" s="7" t="s">
-        <v>17</v>
       </c>
       <c r="K8" s="7" t="s">
         <v>30</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="M8" s="7">
         <v>89</v>
       </c>
       <c r="N8" s="7">
-        <v>64082</v>
+        <v>66552</v>
       </c>
       <c r="O8" s="7" t="s">
         <v>31</v>
@@ -975,25 +975,25 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
+        <v>44</v>
+      </c>
+      <c r="D9" s="7">
+        <v>30211</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H9" s="7">
         <v>46</v>
       </c>
-      <c r="D9" s="7">
-        <v>34869</v>
-      </c>
-      <c r="E9" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="H9" s="7">
-        <v>44</v>
-      </c>
       <c r="I9" s="7">
-        <v>29717</v>
+        <v>36860</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>19</v>
@@ -1008,7 +1008,7 @@
         <v>90</v>
       </c>
       <c r="N9" s="7">
-        <v>64586</v>
+        <v>67071</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>19</v>
@@ -1079,10 +1079,10 @@
         <v>16</v>
       </c>
       <c r="C11" s="7">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D11" s="7">
-        <v>9418</v>
+        <v>9763</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>17</v>
@@ -1094,10 +1094,10 @@
         <v>19</v>
       </c>
       <c r="H11" s="7">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="I11" s="7">
-        <v>9905</v>
+        <v>10754</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>17</v>
@@ -1112,7 +1112,7 @@
         <v>26</v>
       </c>
       <c r="N11" s="7">
-        <v>19323</v>
+        <v>20517</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>17</v>
@@ -1130,25 +1130,25 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
+        <v>14</v>
+      </c>
+      <c r="D12" s="7">
+        <v>9763</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H12" s="7">
         <v>12</v>
       </c>
-      <c r="D12" s="7">
-        <v>9418</v>
-      </c>
-      <c r="E12" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="H12" s="7">
-        <v>14</v>
-      </c>
       <c r="I12" s="7">
-        <v>9905</v>
+        <v>10754</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>19</v>
@@ -1163,7 +1163,7 @@
         <v>26</v>
       </c>
       <c r="N12" s="7">
-        <v>19323</v>
+        <v>20517</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>19</v>
@@ -1183,31 +1183,31 @@
         <v>10</v>
       </c>
       <c r="C13" s="7">
+        <v>0</v>
+      </c>
+      <c r="D13" s="7">
+        <v>0</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="H13" s="7">
         <v>1</v>
       </c>
-      <c r="D13" s="7">
-        <v>504</v>
-      </c>
-      <c r="E13" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="F13" s="7" t="s">
+      <c r="I13" s="7">
+        <v>519</v>
+      </c>
+      <c r="J13" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="K13" s="7" t="s">
         <v>11</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="H13" s="7">
-        <v>0</v>
-      </c>
-      <c r="I13" s="7">
-        <v>0</v>
-      </c>
-      <c r="J13" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>12</v>
       </c>
       <c r="L13" s="7" t="s">
         <v>42</v>
@@ -1216,7 +1216,7 @@
         <v>1</v>
       </c>
       <c r="N13" s="7">
-        <v>504</v>
+        <v>519</v>
       </c>
       <c r="O13" s="7" t="s">
         <v>43</v>
@@ -1237,37 +1237,37 @@
         <v>63</v>
       </c>
       <c r="D14" s="7">
-        <v>48913</v>
+        <v>48166</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F14" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="F14" s="7" t="s">
-        <v>46</v>
-      </c>
       <c r="G14" s="7" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H14" s="7">
         <v>63</v>
       </c>
       <c r="I14" s="7">
-        <v>44360</v>
+        <v>52753</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>17</v>
+        <v>46</v>
       </c>
       <c r="K14" s="7" t="s">
         <v>47</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="M14" s="7">
         <v>126</v>
       </c>
       <c r="N14" s="7">
-        <v>93273</v>
+        <v>100919</v>
       </c>
       <c r="O14" s="7" t="s">
         <v>48</v>
@@ -1285,25 +1285,25 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
+        <v>63</v>
+      </c>
+      <c r="D15" s="7">
+        <v>48166</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H15" s="7">
         <v>64</v>
       </c>
-      <c r="D15" s="7">
-        <v>49417</v>
-      </c>
-      <c r="E15" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="H15" s="7">
-        <v>63</v>
-      </c>
       <c r="I15" s="7">
-        <v>44360</v>
+        <v>53272</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>19</v>
@@ -1318,7 +1318,7 @@
         <v>127</v>
       </c>
       <c r="N15" s="7">
-        <v>93777</v>
+        <v>101438</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>19</v>
